--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9030" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="TEXT" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>key</t>
   </si>
@@ -331,33 +331,6 @@
   </si>
   <si>
     <t>Root*DEF</t>
-  </si>
-  <si>
-    <t>MERIDIANS_3</t>
-  </si>
-  <si>
-    <t>源·生命</t>
-  </si>
-  <si>
-    <t>Root*HP</t>
-  </si>
-  <si>
-    <t>MERIDIANS_4</t>
-  </si>
-  <si>
-    <t>源·暴击</t>
-  </si>
-  <si>
-    <t>Root*CRIT</t>
-  </si>
-  <si>
-    <t>MERIDIANS_5</t>
-  </si>
-  <si>
-    <t>源·抗暴</t>
-  </si>
-  <si>
-    <t>Root*Anti Crit</t>
   </si>
 </sst>
 </file>
@@ -370,14 +343,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,133 +850,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,11 +997,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1581,8 +1547,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
@@ -2030,13 +1996,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8421052631579" defaultRowHeight="14.1" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -2085,48 +2051,6 @@
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
